--- a/public/assets/file/HAV_Summary.xlsx
+++ b/public/assets/file/HAV_Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr dateCompatibility="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handika/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handika/Documents/02_SOURCE_CODE/01_LARAVEL/04_PHP_8_1/core/public/assets/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23732E06-C348-0C48-8822-EDA09709BD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AFF2FB9B-CF08-8B4C-9685-67C641E5D9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,11 @@
     <sheet name="Rumus ALC" sheetId="8" state="veryHidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Summary!$A$12:$AU$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Summary!$A$12:$AT$12</definedName>
     <definedName name="Kategori">Condition!$B$20:$C$27</definedName>
     <definedName name="Kuadran8">Condition!$I$6:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HAV Map'!$A$1:$G$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Summary!$A$1:$AU$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Summary!$A$1:$AT$77</definedName>
     <definedName name="TabelC8">Condition!$B$14:$C$18</definedName>
     <definedName name="TabelR8">Condition!$B$7:$F$11</definedName>
   </definedNames>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="341" uniqueCount="198">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="313" uniqueCount="185">
   <si>
     <t>No</t>
   </si>
@@ -311,12 +311,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>Pemahaman dan wawasan di bidang otomotif membantunya dalam mengelola unit kerjanya, Mampu menerjemahkan visi perusahaan menjadi progam kerja di unitnya tetapi masih bersifat jangka pendek dan menengah, Belum proaktif mencari peluang2 yang dapat meningkatkan performa bisnis</t>
-  </si>
-  <si>
-    <t>Menunjukkan kemampuan untuk melihat situasi sebagai gambaran besar, serta kemampuan untuk membuat strategi jangka panjang comprehensif, Memiliki pemahaman yang komprehensif mengenai bisnis perusahaan</t>
-  </si>
-  <si>
     <t>Usia</t>
   </si>
   <si>
@@ -566,9 +560,6 @@
     <t>&gt;=21</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Baris HAV Original</t>
   </si>
   <si>
@@ -605,49 +596,19 @@
     <t>IDP 3</t>
   </si>
   <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>Marketing &amp; Sales</t>
-  </si>
-  <si>
-    <t>Marketing Planning</t>
-  </si>
-  <si>
-    <t>VBS</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>PDA</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>AGMP</t>
-  </si>
-  <si>
-    <t>MMA</t>
-  </si>
-  <si>
-    <t>CLS</t>
-  </si>
-  <si>
-    <t>Raffi Ahmad</t>
-  </si>
-  <si>
     <t>Masa Kerja</t>
   </si>
   <si>
-    <t>15,10</t>
-  </si>
-  <si>
     <t>Raffi Ahmad (Marketing Planning; 5A; 38; 15,10)</t>
+  </si>
+  <si>
+    <t>Company             :</t>
+  </si>
+  <si>
+    <t>Division                :</t>
+  </si>
+  <si>
+    <t>Department      :</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1378,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1814,6 +1775,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,9 +1795,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1942,19 +1903,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2524,8 +2476,8 @@
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2567,10 +2519,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://purl.oclc.org/ooxml/spreadsheetml/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2909,82 +2857,82 @@
   <sheetData>
     <row r="1" spans="1:26" s="43" customFormat="1" ht="39">
       <c r="A1" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="M1" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="O1" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="R1" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="S1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="T1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="U1" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="V1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="W1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="X1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="Y1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="42" t="s">
         <v>111</v>
-      </c>
-      <c r="X1" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z1" s="42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="51" customFormat="1">
@@ -2995,7 +2943,7 @@
         <v>1234</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="44">
         <v>5</v>
@@ -3004,34 +2952,34 @@
         <v>83</v>
       </c>
       <c r="F2" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="I2" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="J2" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="K2" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="L2" s="45" t="s">
         <v>119</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>121</v>
       </c>
       <c r="M2" s="45">
         <v>2008</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O2" s="45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P2" s="46" t="d">
         <v>2000-03-25</v>
@@ -3063,7 +3011,7 @@
         <v>2345</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="44">
         <v>4</v>
@@ -3072,34 +3020,34 @@
         <v>81</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G3" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="J3" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="K3" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="L3" s="45" t="s">
         <v>119</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>121</v>
       </c>
       <c r="M3" s="45">
         <v>2008</v>
       </c>
       <c r="N3" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O3" s="45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P3" s="46" t="d">
         <v>2000-03-25</v>
@@ -3131,7 +3079,7 @@
         <v>3456</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="44">
         <v>5</v>
@@ -3140,34 +3088,34 @@
         <v>83</v>
       </c>
       <c r="F4" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="45" t="s">
         <v>127</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="45" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="45">
         <v>2008</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O4" s="45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P4" s="46" t="d">
         <v>2000-03-26</v>
@@ -3199,7 +3147,7 @@
         <v>4567</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="44">
         <v>4</v>
@@ -3208,34 +3156,34 @@
         <v>81</v>
       </c>
       <c r="F5" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="45" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>133</v>
       </c>
       <c r="M5" s="45">
         <v>2008</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O5" s="45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P5" s="46" t="d">
         <v>2000-03-27</v>
@@ -3267,7 +3215,7 @@
         <v>5678</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="44">
         <v>4</v>
@@ -3276,34 +3224,34 @@
         <v>84</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G6" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="45" t="s">
+      <c r="J6" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>120</v>
-      </c>
       <c r="L6" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M6" s="45">
         <v>2008</v>
       </c>
       <c r="N6" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O6" s="45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P6" s="46" t="d">
         <v>2000-03-28</v>
@@ -3452,7 +3400,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="8"/>
       <c r="F13" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -3556,10 +3504,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AU77"/>
+  <dimension ref="A1:AT77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="R1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -3587,14 +3535,14 @@
     <col min="24" max="25" width="6" style="126" customWidth="1"/>
     <col min="26" max="26" width="13" style="126" customWidth="1"/>
     <col min="27" max="29" width="9.1640625" style="126" customWidth="1"/>
-    <col min="30" max="31" width="9.1640625" style="126"/>
-    <col min="32" max="36" width="9.1640625" style="127"/>
-    <col min="37" max="39" width="10" style="127" customWidth="1"/>
-    <col min="40" max="47" width="25.6640625" style="146" customWidth="1"/>
-    <col min="48" max="16384" width="9.1640625" style="2"/>
+    <col min="30" max="30" width="18" style="126" customWidth="1"/>
+    <col min="31" max="35" width="9.1640625" style="127"/>
+    <col min="36" max="38" width="10" style="127" customWidth="1"/>
+    <col min="39" max="46" width="25.6640625" style="146" customWidth="1"/>
+    <col min="47" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" customFormat="1">
+    <row r="1" spans="1:46" customFormat="1">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3602,7 +3550,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:47" customFormat="1">
+    <row r="2" spans="1:46" customFormat="1">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3610,7 +3558,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:47" customFormat="1">
+    <row r="3" spans="1:46" customFormat="1">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3618,7 +3566,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:47" customFormat="1">
+    <row r="4" spans="1:46" customFormat="1">
       <c r="A4" s="147" t="s">
         <v>14</v>
       </c>
@@ -3651,13 +3599,12 @@
       <c r="AB4" s="147"/>
       <c r="AC4" s="147"/>
       <c r="AD4" s="147"/>
-      <c r="AE4" s="147"/>
+      <c r="AE4" s="70"/>
       <c r="AF4" s="70"/>
       <c r="AG4" s="70"/>
       <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-    </row>
-    <row r="5" spans="1:47" customFormat="1">
+    </row>
+    <row r="5" spans="1:46" customFormat="1">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3665,22 +3612,21 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:47" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
+    <row r="6" spans="1:46" customFormat="1">
+      <c r="A6" s="149" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="149"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="155"/>
-      <c r="L6" s="71" t="s">
-        <v>11</v>
-      </c>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="71"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -3705,24 +3651,22 @@
       <c r="AH6" s="72"/>
       <c r="AI6" s="72"/>
       <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-    </row>
-    <row r="7" spans="1:47" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
+    </row>
+    <row r="7" spans="1:46" customFormat="1">
+      <c r="A7" s="149" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="149"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="155" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="155"/>
-      <c r="L7" s="71" t="s">
-        <v>11</v>
-      </c>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -3747,24 +3691,22 @@
       <c r="AH7" s="72"/>
       <c r="AI7" s="72"/>
       <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-    </row>
-    <row r="8" spans="1:47" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="C8" s="5"/>
+    </row>
+    <row r="8" spans="1:46" customFormat="1">
+      <c r="A8" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="149"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="71" t="s">
-        <v>11</v>
-      </c>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
       <c r="O8" s="71"/>
@@ -3789,36 +3731,35 @@
       <c r="AH8" s="72"/>
       <c r="AI8" s="72"/>
       <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-    </row>
-    <row r="9" spans="1:47" s="1" customFormat="1" ht="16" thickBot="1"/>
-    <row r="10" spans="1:47" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="149" t="s">
+    </row>
+    <row r="9" spans="1:46" s="1" customFormat="1" ht="16" thickBot="1"/>
+    <row r="10" spans="1:46" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="149" t="s">
+      <c r="C10" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="152" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="152" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="152" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="152" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="149" t="s">
+      <c r="D10" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="153" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="150" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="176" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J10" s="173" t="s">
         <v>23</v>
@@ -3852,56 +3793,55 @@
       <c r="AA10" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="206" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC10" s="206" t="s">
+      <c r="AB10" s="203" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC10" s="203" t="s">
         <v>24</v>
       </c>
       <c r="AD10" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="AE10" s="191"/>
-      <c r="AF10" s="196" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG10" s="197"/>
-      <c r="AH10" s="198"/>
-      <c r="AI10" s="202" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ10" s="203"/>
-      <c r="AK10" s="179" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL10" s="180"/>
-      <c r="AM10" s="181"/>
-      <c r="AN10" s="185" t="s">
+      <c r="AE10" s="193" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="195"/>
+      <c r="AH10" s="199" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI10" s="200"/>
+      <c r="AJ10" s="179" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK10" s="180"/>
+      <c r="AL10" s="181"/>
+      <c r="AM10" s="185" t="s">
         <v>22</v>
       </c>
+      <c r="AN10" s="186"/>
       <c r="AO10" s="186"/>
       <c r="AP10" s="186"/>
       <c r="AQ10" s="186"/>
       <c r="AR10" s="186"/>
       <c r="AS10" s="186"/>
-      <c r="AT10" s="186"/>
-      <c r="AU10" s="187"/>
-    </row>
-    <row r="11" spans="1:47" s="132" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A11" s="150" t="s">
+      <c r="AT10" s="187"/>
+    </row>
+    <row r="11" spans="1:46" s="132" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A11" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="150"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="151"/>
       <c r="I11" s="177"/>
       <c r="J11" s="128" t="s">
         <v>1</v>
@@ -3952,52 +3892,51 @@
         <v>2020</v>
       </c>
       <c r="AA11" s="169"/>
-      <c r="AB11" s="207"/>
-      <c r="AC11" s="207"/>
-      <c r="AD11" s="192"/>
-      <c r="AE11" s="193"/>
-      <c r="AF11" s="199"/>
-      <c r="AG11" s="200"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="204"/>
+      <c r="AD11" s="191"/>
+      <c r="AE11" s="196"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="198"/>
       <c r="AH11" s="201"/>
-      <c r="AI11" s="204"/>
-      <c r="AJ11" s="205"/>
-      <c r="AK11" s="182"/>
-      <c r="AL11" s="183"/>
-      <c r="AM11" s="184"/>
+      <c r="AI11" s="202"/>
+      <c r="AJ11" s="182"/>
+      <c r="AK11" s="183"/>
+      <c r="AL11" s="184"/>
+      <c r="AM11" s="131" t="s">
+        <v>1</v>
+      </c>
       <c r="AN11" s="131" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="131" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP11" s="131" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ11" s="131" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR11" s="131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS11" s="131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT11" s="131" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU11" s="131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:47" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="151"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="151"/>
+    <row r="12" spans="1:46" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="152"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="178"/>
       <c r="J12" s="133">
         <v>0.15</v>
@@ -4033,39 +3972,41 @@
       <c r="Y12" s="189"/>
       <c r="Z12" s="189"/>
       <c r="AA12" s="170"/>
-      <c r="AB12" s="208"/>
-      <c r="AC12" s="208"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="195"/>
-      <c r="AF12" s="136" t="s">
+      <c r="AB12" s="205"/>
+      <c r="AC12" s="205"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF12" s="137" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG12" s="138" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH12" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI12" s="139" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ12" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="AG12" s="137" t="s">
+      <c r="AK12" s="141" t="s">
         <v>178</v>
       </c>
-      <c r="AH12" s="138" t="s">
+      <c r="AL12" s="142" t="s">
         <v>179</v>
       </c>
-      <c r="AI12" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ12" s="139" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK12" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL12" s="141" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM12" s="142" t="s">
-        <v>182</v>
+      <c r="AM12" s="143">
+        <v>0.15</v>
       </c>
       <c r="AN12" s="143">
         <v>0.15</v>
       </c>
       <c r="AO12" s="143">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AP12" s="143">
         <v>0.1</v>
@@ -4074,176 +4015,65 @@
         <v>0.1</v>
       </c>
       <c r="AR12" s="143">
+        <v>0.15</v>
+      </c>
+      <c r="AS12" s="143">
         <v>0.1</v>
       </c>
-      <c r="AS12" s="143">
+      <c r="AT12" s="143">
         <v>0.15</v>
       </c>
-      <c r="AT12" s="143">
-        <v>0.1</v>
-      </c>
-      <c r="AU12" s="143">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" ht="13.5" customHeight="1">
-      <c r="A13" s="74">
-        <v>1</v>
-      </c>
-      <c r="B13" s="75">
-        <v>123</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="74">
-        <v>38</v>
-      </c>
-      <c r="H13" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="J13" s="77">
-        <v>2</v>
-      </c>
-      <c r="K13" s="77">
-        <v>3</v>
-      </c>
-      <c r="L13" s="77">
-        <v>3</v>
-      </c>
-      <c r="M13" s="77">
-        <v>3</v>
-      </c>
-      <c r="N13" s="77">
-        <v>3</v>
-      </c>
-      <c r="O13" s="77">
-        <v>3</v>
-      </c>
-      <c r="P13" s="77">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="77">
-        <v>3</v>
-      </c>
-      <c r="R13" s="80">
-        <f>AVERAGE((J13*0.15)+(K13*0.15)+(L13*0.1)+(M13*0.1)+(N13*0.1)+(O13*0.15)+(P13*0.1)+(Q13*0.15))</f>
-        <v>2.8500000000000005</v>
-      </c>
-      <c r="S13" s="74">
-        <f>R13/5</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="T13" s="74" t="str">
-        <f>IF(S13&gt;=0.71,"C3",IF(S13&gt;=0.61,"C2",IF(S13&gt;=0.5,"C1",IF(S13&lt;0.5,"C0",0))))</f>
-        <v>C1</v>
-      </c>
-      <c r="U13" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="V13" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="W13" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="X13" s="81">
-        <f>VLOOKUP(U13,Kategori,2,0)</f>
-        <v>8</v>
-      </c>
-      <c r="Y13" s="78">
-        <f>VLOOKUP(V13,Kategori,2,0)</f>
-        <v>8</v>
-      </c>
-      <c r="Z13" s="82">
-        <f>VLOOKUP(W13,Kategori,2,0)</f>
-        <v>8</v>
-      </c>
-      <c r="AA13" s="74">
-        <f>SUM(X13:Z13)</f>
-        <v>24</v>
-      </c>
-      <c r="AB13" s="74" t="str">
-        <f>IF(AA13&gt;=21,"R3",IF(AA13&gt;=16,"R2",IF(AA13&gt;=12,"R1",IF(AA13&gt;=1, "R0",0))))</f>
-        <v>R3</v>
-      </c>
-      <c r="AC13" s="74" t="str">
-        <f>IF(OR(U13="C",U13="C+",U13="K",V13="C",V13="C+",V13="K",W13="C",W13="C+",W13="K"),"R0",AB13)</f>
-        <v>R3</v>
-      </c>
-      <c r="AD13" s="74">
-        <f>VLOOKUP(AC13,TabelR8, VLOOKUP(T13,TabelC8,2,0),0)</f>
-        <v>7</v>
-      </c>
-      <c r="AE13" s="74" t="str">
-        <f>VLOOKUP(AD13,Kuadran8,2, )</f>
-        <v>Top Performers</v>
-      </c>
-      <c r="AF13" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG13" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH13" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI13" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ13" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK13" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL13" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM13" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN13" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO13" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP13" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ13" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR13" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS13" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT13" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU13" s="83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" ht="79" customHeight="1">
-      <c r="A14" s="84">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="13" spans="1:46" ht="13.5" customHeight="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="83"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+    </row>
+    <row r="14" spans="1:46" ht="79" customHeight="1">
+      <c r="A14" s="84"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
@@ -4273,15 +4103,15 @@
       <c r="AB14" s="84"/>
       <c r="AC14" s="84"/>
       <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="89"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="93"/>
       <c r="AN14" s="93"/>
       <c r="AO14" s="93"/>
       <c r="AP14" s="93"/>
@@ -4289,9 +4119,8 @@
       <c r="AR14" s="93"/>
       <c r="AS14" s="93"/>
       <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-    </row>
-    <row r="15" spans="1:47" ht="13.5" customHeight="1">
+    </row>
+    <row r="15" spans="1:46" ht="13.5" customHeight="1">
       <c r="A15" s="84"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -4322,15 +4151,15 @@
       <c r="AB15" s="84"/>
       <c r="AC15" s="84"/>
       <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="89"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="93"/>
       <c r="AN15" s="93"/>
       <c r="AO15" s="93"/>
       <c r="AP15" s="93"/>
@@ -4338,9 +4167,8 @@
       <c r="AR15" s="93"/>
       <c r="AS15" s="93"/>
       <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-    </row>
-    <row r="16" spans="1:47">
+    </row>
+    <row r="16" spans="1:46">
       <c r="A16" s="84"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
@@ -4371,15 +4199,15 @@
       <c r="AB16" s="84"/>
       <c r="AC16" s="84"/>
       <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="89"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="89"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="88"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="93"/>
       <c r="AN16" s="93"/>
       <c r="AO16" s="93"/>
       <c r="AP16" s="93"/>
@@ -4387,9 +4215,8 @@
       <c r="AR16" s="93"/>
       <c r="AS16" s="93"/>
       <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-    </row>
-    <row r="17" spans="1:47">
+    </row>
+    <row r="17" spans="1:46">
       <c r="A17" s="84"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
@@ -4420,15 +4247,15 @@
       <c r="AB17" s="84"/>
       <c r="AC17" s="84"/>
       <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="88"/>
-      <c r="AM17" s="89"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="93"/>
       <c r="AN17" s="93"/>
       <c r="AO17" s="93"/>
       <c r="AP17" s="93"/>
@@ -4436,9 +4263,8 @@
       <c r="AR17" s="93"/>
       <c r="AS17" s="93"/>
       <c r="AT17" s="93"/>
-      <c r="AU17" s="93"/>
-    </row>
-    <row r="18" spans="1:47">
+    </row>
+    <row r="18" spans="1:46">
       <c r="A18" s="84"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -4469,15 +4295,15 @@
       <c r="AB18" s="84"/>
       <c r="AC18" s="84"/>
       <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="89"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="93"/>
       <c r="AN18" s="93"/>
       <c r="AO18" s="93"/>
       <c r="AP18" s="93"/>
@@ -4485,9 +4311,8 @@
       <c r="AR18" s="93"/>
       <c r="AS18" s="93"/>
       <c r="AT18" s="93"/>
-      <c r="AU18" s="93"/>
-    </row>
-    <row r="19" spans="1:47">
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
@@ -4518,15 +4343,15 @@
       <c r="AB19" s="84"/>
       <c r="AC19" s="84"/>
       <c r="AD19" s="84"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="89"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="89"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="93"/>
       <c r="AN19" s="93"/>
       <c r="AO19" s="93"/>
       <c r="AP19" s="93"/>
@@ -4534,9 +4359,8 @@
       <c r="AR19" s="93"/>
       <c r="AS19" s="93"/>
       <c r="AT19" s="93"/>
-      <c r="AU19" s="93"/>
-    </row>
-    <row r="20" spans="1:47">
+    </row>
+    <row r="20" spans="1:46">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -4567,15 +4391,15 @@
       <c r="AB20" s="84"/>
       <c r="AC20" s="84"/>
       <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="87"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="89"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="89"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="89"/>
+      <c r="AM20" s="93"/>
       <c r="AN20" s="93"/>
       <c r="AO20" s="93"/>
       <c r="AP20" s="93"/>
@@ -4583,9 +4407,8 @@
       <c r="AR20" s="93"/>
       <c r="AS20" s="93"/>
       <c r="AT20" s="93"/>
-      <c r="AU20" s="93"/>
-    </row>
-    <row r="21" spans="1:47">
+    </row>
+    <row r="21" spans="1:46">
       <c r="A21" s="84"/>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
@@ -4616,15 +4439,15 @@
       <c r="AB21" s="84"/>
       <c r="AC21" s="84"/>
       <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="89"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="89"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="89"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="88"/>
+      <c r="AL21" s="89"/>
+      <c r="AM21" s="93"/>
       <c r="AN21" s="93"/>
       <c r="AO21" s="93"/>
       <c r="AP21" s="93"/>
@@ -4632,9 +4455,8 @@
       <c r="AR21" s="93"/>
       <c r="AS21" s="93"/>
       <c r="AT21" s="93"/>
-      <c r="AU21" s="93"/>
-    </row>
-    <row r="22" spans="1:47">
+    </row>
+    <row r="22" spans="1:46">
       <c r="A22" s="84"/>
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
@@ -4665,15 +4487,15 @@
       <c r="AB22" s="84"/>
       <c r="AC22" s="84"/>
       <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="87"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="89"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="89"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="93"/>
       <c r="AN22" s="93"/>
       <c r="AO22" s="93"/>
       <c r="AP22" s="93"/>
@@ -4681,9 +4503,8 @@
       <c r="AR22" s="93"/>
       <c r="AS22" s="93"/>
       <c r="AT22" s="93"/>
-      <c r="AU22" s="93"/>
-    </row>
-    <row r="23" spans="1:47">
+    </row>
+    <row r="23" spans="1:46">
       <c r="A23" s="84"/>
       <c r="B23" s="85"/>
       <c r="C23" s="85"/>
@@ -4714,15 +4535,15 @@
       <c r="AB23" s="84"/>
       <c r="AC23" s="84"/>
       <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="89"/>
+      <c r="AE23" s="87"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="93"/>
       <c r="AN23" s="93"/>
       <c r="AO23" s="93"/>
       <c r="AP23" s="93"/>
@@ -4730,9 +4551,8 @@
       <c r="AR23" s="93"/>
       <c r="AS23" s="93"/>
       <c r="AT23" s="93"/>
-      <c r="AU23" s="93"/>
-    </row>
-    <row r="24" spans="1:47">
+    </row>
+    <row r="24" spans="1:46">
       <c r="A24" s="84"/>
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
@@ -4763,15 +4583,15 @@
       <c r="AB24" s="84"/>
       <c r="AC24" s="84"/>
       <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="89"/>
-      <c r="AK24" s="87"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="89"/>
+      <c r="AE24" s="87"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="89"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="88"/>
+      <c r="AL24" s="89"/>
+      <c r="AM24" s="93"/>
       <c r="AN24" s="93"/>
       <c r="AO24" s="93"/>
       <c r="AP24" s="93"/>
@@ -4779,9 +4599,8 @@
       <c r="AR24" s="93"/>
       <c r="AS24" s="93"/>
       <c r="AT24" s="93"/>
-      <c r="AU24" s="93"/>
-    </row>
-    <row r="25" spans="1:47">
+    </row>
+    <row r="25" spans="1:46">
       <c r="A25" s="84"/>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
@@ -4812,15 +4631,15 @@
       <c r="AB25" s="84"/>
       <c r="AC25" s="84"/>
       <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="87"/>
-      <c r="AG25" s="88"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="87"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="89"/>
+      <c r="AE25" s="87"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="89"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="88"/>
+      <c r="AL25" s="89"/>
+      <c r="AM25" s="93"/>
       <c r="AN25" s="93"/>
       <c r="AO25" s="93"/>
       <c r="AP25" s="93"/>
@@ -4828,9 +4647,8 @@
       <c r="AR25" s="93"/>
       <c r="AS25" s="93"/>
       <c r="AT25" s="93"/>
-      <c r="AU25" s="93"/>
-    </row>
-    <row r="26" spans="1:47">
+    </row>
+    <row r="26" spans="1:46">
       <c r="A26" s="94"/>
       <c r="B26" s="95"/>
       <c r="C26" s="95"/>
@@ -4861,15 +4679,15 @@
       <c r="AB26" s="96"/>
       <c r="AC26" s="96"/>
       <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="89"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="89"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="89"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="88"/>
+      <c r="AL26" s="89"/>
+      <c r="AM26" s="93"/>
       <c r="AN26" s="93"/>
       <c r="AO26" s="93"/>
       <c r="AP26" s="93"/>
@@ -4877,9 +4695,8 @@
       <c r="AR26" s="93"/>
       <c r="AS26" s="93"/>
       <c r="AT26" s="93"/>
-      <c r="AU26" s="93"/>
-    </row>
-    <row r="27" spans="1:47">
+    </row>
+    <row r="27" spans="1:46">
       <c r="A27" s="94"/>
       <c r="B27" s="95"/>
       <c r="C27" s="95"/>
@@ -4910,15 +4727,15 @@
       <c r="AB27" s="96"/>
       <c r="AC27" s="96"/>
       <c r="AD27" s="96"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="88"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="89"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="88"/>
-      <c r="AM27" s="89"/>
+      <c r="AE27" s="87"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="89"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="88"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="93"/>
       <c r="AN27" s="93"/>
       <c r="AO27" s="93"/>
       <c r="AP27" s="93"/>
@@ -4926,9 +4743,8 @@
       <c r="AR27" s="93"/>
       <c r="AS27" s="93"/>
       <c r="AT27" s="93"/>
-      <c r="AU27" s="93"/>
-    </row>
-    <row r="28" spans="1:47">
+    </row>
+    <row r="28" spans="1:46">
       <c r="A28" s="94"/>
       <c r="B28" s="95"/>
       <c r="C28" s="95"/>
@@ -4959,15 +4775,15 @@
       <c r="AB28" s="96"/>
       <c r="AC28" s="96"/>
       <c r="AD28" s="96"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="89"/>
+      <c r="AE28" s="87"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="89"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="88"/>
+      <c r="AL28" s="89"/>
+      <c r="AM28" s="93"/>
       <c r="AN28" s="93"/>
       <c r="AO28" s="93"/>
       <c r="AP28" s="93"/>
@@ -4975,9 +4791,8 @@
       <c r="AR28" s="93"/>
       <c r="AS28" s="93"/>
       <c r="AT28" s="93"/>
-      <c r="AU28" s="93"/>
-    </row>
-    <row r="29" spans="1:47">
+    </row>
+    <row r="29" spans="1:46">
       <c r="A29" s="94"/>
       <c r="B29" s="95"/>
       <c r="C29" s="95"/>
@@ -5008,15 +4823,15 @@
       <c r="AB29" s="96"/>
       <c r="AC29" s="96"/>
       <c r="AD29" s="96"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="89"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="89"/>
-      <c r="AK29" s="87"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="89"/>
+      <c r="AE29" s="87"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="89"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="89"/>
+      <c r="AJ29" s="87"/>
+      <c r="AK29" s="88"/>
+      <c r="AL29" s="89"/>
+      <c r="AM29" s="93"/>
       <c r="AN29" s="93"/>
       <c r="AO29" s="93"/>
       <c r="AP29" s="93"/>
@@ -5024,9 +4839,8 @@
       <c r="AR29" s="93"/>
       <c r="AS29" s="93"/>
       <c r="AT29" s="93"/>
-      <c r="AU29" s="93"/>
-    </row>
-    <row r="30" spans="1:47">
+    </row>
+    <row r="30" spans="1:46">
       <c r="A30" s="94"/>
       <c r="B30" s="95"/>
       <c r="C30" s="95"/>
@@ -5057,15 +4871,15 @@
       <c r="AB30" s="96"/>
       <c r="AC30" s="96"/>
       <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="89"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="88"/>
-      <c r="AM30" s="89"/>
+      <c r="AE30" s="87"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="87"/>
+      <c r="AI30" s="89"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="88"/>
+      <c r="AL30" s="89"/>
+      <c r="AM30" s="93"/>
       <c r="AN30" s="93"/>
       <c r="AO30" s="93"/>
       <c r="AP30" s="93"/>
@@ -5073,9 +4887,8 @@
       <c r="AR30" s="93"/>
       <c r="AS30" s="93"/>
       <c r="AT30" s="93"/>
-      <c r="AU30" s="93"/>
-    </row>
-    <row r="31" spans="1:47">
+    </row>
+    <row r="31" spans="1:46">
       <c r="A31" s="94"/>
       <c r="B31" s="95"/>
       <c r="C31" s="95"/>
@@ -5106,15 +4919,15 @@
       <c r="AB31" s="96"/>
       <c r="AC31" s="96"/>
       <c r="AD31" s="96"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="89"/>
-      <c r="AK31" s="87"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="89"/>
+      <c r="AE31" s="87"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="89"/>
+      <c r="AJ31" s="87"/>
+      <c r="AK31" s="88"/>
+      <c r="AL31" s="89"/>
+      <c r="AM31" s="93"/>
       <c r="AN31" s="93"/>
       <c r="AO31" s="93"/>
       <c r="AP31" s="93"/>
@@ -5122,9 +4935,8 @@
       <c r="AR31" s="93"/>
       <c r="AS31" s="93"/>
       <c r="AT31" s="93"/>
-      <c r="AU31" s="93"/>
-    </row>
-    <row r="32" spans="1:47">
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" s="94"/>
       <c r="B32" s="95"/>
       <c r="C32" s="95"/>
@@ -5155,15 +4967,15 @@
       <c r="AB32" s="96"/>
       <c r="AC32" s="96"/>
       <c r="AD32" s="96"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="87"/>
-      <c r="AJ32" s="89"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="88"/>
-      <c r="AM32" s="89"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="89"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="88"/>
+      <c r="AL32" s="89"/>
+      <c r="AM32" s="93"/>
       <c r="AN32" s="93"/>
       <c r="AO32" s="93"/>
       <c r="AP32" s="93"/>
@@ -5171,9 +4983,8 @@
       <c r="AR32" s="93"/>
       <c r="AS32" s="93"/>
       <c r="AT32" s="93"/>
-      <c r="AU32" s="93"/>
-    </row>
-    <row r="33" spans="1:47">
+    </row>
+    <row r="33" spans="1:46">
       <c r="A33" s="94"/>
       <c r="B33" s="95"/>
       <c r="C33" s="95"/>
@@ -5204,15 +5015,15 @@
       <c r="AB33" s="96"/>
       <c r="AC33" s="96"/>
       <c r="AD33" s="96"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="87"/>
-      <c r="AG33" s="88"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="89"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="88"/>
-      <c r="AM33" s="89"/>
+      <c r="AE33" s="87"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="89"/>
+      <c r="AH33" s="87"/>
+      <c r="AI33" s="89"/>
+      <c r="AJ33" s="87"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="89"/>
+      <c r="AM33" s="93"/>
       <c r="AN33" s="93"/>
       <c r="AO33" s="93"/>
       <c r="AP33" s="93"/>
@@ -5220,9 +5031,8 @@
       <c r="AR33" s="93"/>
       <c r="AS33" s="93"/>
       <c r="AT33" s="93"/>
-      <c r="AU33" s="93"/>
-    </row>
-    <row r="34" spans="1:47">
+    </row>
+    <row r="34" spans="1:46">
       <c r="A34" s="94"/>
       <c r="B34" s="95"/>
       <c r="C34" s="95"/>
@@ -5253,15 +5063,15 @@
       <c r="AB34" s="96"/>
       <c r="AC34" s="96"/>
       <c r="AD34" s="96"/>
-      <c r="AE34" s="96"/>
-      <c r="AF34" s="87"/>
-      <c r="AG34" s="88"/>
-      <c r="AH34" s="89"/>
-      <c r="AI34" s="87"/>
-      <c r="AJ34" s="89"/>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="88"/>
-      <c r="AM34" s="89"/>
+      <c r="AE34" s="87"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="89"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="89"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="89"/>
+      <c r="AM34" s="93"/>
       <c r="AN34" s="93"/>
       <c r="AO34" s="93"/>
       <c r="AP34" s="93"/>
@@ -5269,9 +5079,8 @@
       <c r="AR34" s="93"/>
       <c r="AS34" s="93"/>
       <c r="AT34" s="93"/>
-      <c r="AU34" s="93"/>
-    </row>
-    <row r="35" spans="1:47">
+    </row>
+    <row r="35" spans="1:46">
       <c r="A35" s="94"/>
       <c r="B35" s="95"/>
       <c r="C35" s="95"/>
@@ -5302,15 +5111,15 @@
       <c r="AB35" s="96"/>
       <c r="AC35" s="96"/>
       <c r="AD35" s="96"/>
-      <c r="AE35" s="96"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="89"/>
-      <c r="AK35" s="87"/>
-      <c r="AL35" s="88"/>
-      <c r="AM35" s="89"/>
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="88"/>
+      <c r="AG35" s="89"/>
+      <c r="AH35" s="87"/>
+      <c r="AI35" s="89"/>
+      <c r="AJ35" s="87"/>
+      <c r="AK35" s="88"/>
+      <c r="AL35" s="89"/>
+      <c r="AM35" s="93"/>
       <c r="AN35" s="93"/>
       <c r="AO35" s="93"/>
       <c r="AP35" s="93"/>
@@ -5318,9 +5127,8 @@
       <c r="AR35" s="93"/>
       <c r="AS35" s="93"/>
       <c r="AT35" s="93"/>
-      <c r="AU35" s="93"/>
-    </row>
-    <row r="36" spans="1:47">
+    </row>
+    <row r="36" spans="1:46">
       <c r="A36" s="94"/>
       <c r="B36" s="95"/>
       <c r="C36" s="95"/>
@@ -5351,15 +5159,15 @@
       <c r="AB36" s="96"/>
       <c r="AC36" s="96"/>
       <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="87"/>
-      <c r="AG36" s="88"/>
-      <c r="AH36" s="89"/>
-      <c r="AI36" s="87"/>
-      <c r="AJ36" s="89"/>
-      <c r="AK36" s="87"/>
-      <c r="AL36" s="88"/>
-      <c r="AM36" s="89"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="88"/>
+      <c r="AG36" s="89"/>
+      <c r="AH36" s="87"/>
+      <c r="AI36" s="89"/>
+      <c r="AJ36" s="87"/>
+      <c r="AK36" s="88"/>
+      <c r="AL36" s="89"/>
+      <c r="AM36" s="93"/>
       <c r="AN36" s="93"/>
       <c r="AO36" s="93"/>
       <c r="AP36" s="93"/>
@@ -5367,9 +5175,8 @@
       <c r="AR36" s="93"/>
       <c r="AS36" s="93"/>
       <c r="AT36" s="93"/>
-      <c r="AU36" s="93"/>
-    </row>
-    <row r="37" spans="1:47">
+    </row>
+    <row r="37" spans="1:46">
       <c r="A37" s="94"/>
       <c r="B37" s="95"/>
       <c r="C37" s="95"/>
@@ -5400,15 +5207,15 @@
       <c r="AB37" s="96"/>
       <c r="AC37" s="96"/>
       <c r="AD37" s="96"/>
-      <c r="AE37" s="96"/>
-      <c r="AF37" s="87"/>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="89"/>
-      <c r="AI37" s="87"/>
-      <c r="AJ37" s="89"/>
-      <c r="AK37" s="87"/>
-      <c r="AL37" s="88"/>
-      <c r="AM37" s="89"/>
+      <c r="AE37" s="87"/>
+      <c r="AF37" s="88"/>
+      <c r="AG37" s="89"/>
+      <c r="AH37" s="87"/>
+      <c r="AI37" s="89"/>
+      <c r="AJ37" s="87"/>
+      <c r="AK37" s="88"/>
+      <c r="AL37" s="89"/>
+      <c r="AM37" s="93"/>
       <c r="AN37" s="93"/>
       <c r="AO37" s="93"/>
       <c r="AP37" s="93"/>
@@ -5416,9 +5223,8 @@
       <c r="AR37" s="93"/>
       <c r="AS37" s="93"/>
       <c r="AT37" s="93"/>
-      <c r="AU37" s="93"/>
-    </row>
-    <row r="38" spans="1:47">
+    </row>
+    <row r="38" spans="1:46">
       <c r="A38" s="94"/>
       <c r="B38" s="95"/>
       <c r="C38" s="95"/>
@@ -5449,15 +5255,15 @@
       <c r="AB38" s="96"/>
       <c r="AC38" s="96"/>
       <c r="AD38" s="96"/>
-      <c r="AE38" s="96"/>
-      <c r="AF38" s="87"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="89"/>
-      <c r="AI38" s="87"/>
-      <c r="AJ38" s="89"/>
-      <c r="AK38" s="87"/>
-      <c r="AL38" s="88"/>
-      <c r="AM38" s="89"/>
+      <c r="AE38" s="87"/>
+      <c r="AF38" s="88"/>
+      <c r="AG38" s="89"/>
+      <c r="AH38" s="87"/>
+      <c r="AI38" s="89"/>
+      <c r="AJ38" s="87"/>
+      <c r="AK38" s="88"/>
+      <c r="AL38" s="89"/>
+      <c r="AM38" s="93"/>
       <c r="AN38" s="93"/>
       <c r="AO38" s="93"/>
       <c r="AP38" s="93"/>
@@ -5465,9 +5271,8 @@
       <c r="AR38" s="93"/>
       <c r="AS38" s="93"/>
       <c r="AT38" s="93"/>
-      <c r="AU38" s="93"/>
-    </row>
-    <row r="39" spans="1:47">
+    </row>
+    <row r="39" spans="1:46">
       <c r="A39" s="94"/>
       <c r="B39" s="95"/>
       <c r="C39" s="95"/>
@@ -5498,15 +5303,15 @@
       <c r="AB39" s="96"/>
       <c r="AC39" s="96"/>
       <c r="AD39" s="96"/>
-      <c r="AE39" s="96"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="88"/>
-      <c r="AH39" s="89"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="89"/>
-      <c r="AK39" s="87"/>
-      <c r="AL39" s="88"/>
-      <c r="AM39" s="89"/>
+      <c r="AE39" s="87"/>
+      <c r="AF39" s="88"/>
+      <c r="AG39" s="89"/>
+      <c r="AH39" s="87"/>
+      <c r="AI39" s="89"/>
+      <c r="AJ39" s="87"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="89"/>
+      <c r="AM39" s="93"/>
       <c r="AN39" s="93"/>
       <c r="AO39" s="93"/>
       <c r="AP39" s="93"/>
@@ -5514,9 +5319,8 @@
       <c r="AR39" s="93"/>
       <c r="AS39" s="93"/>
       <c r="AT39" s="93"/>
-      <c r="AU39" s="93"/>
-    </row>
-    <row r="40" spans="1:47">
+    </row>
+    <row r="40" spans="1:46">
       <c r="A40" s="94"/>
       <c r="B40" s="95"/>
       <c r="C40" s="95"/>
@@ -5547,15 +5351,15 @@
       <c r="AB40" s="96"/>
       <c r="AC40" s="96"/>
       <c r="AD40" s="96"/>
-      <c r="AE40" s="96"/>
-      <c r="AF40" s="87"/>
-      <c r="AG40" s="88"/>
-      <c r="AH40" s="89"/>
-      <c r="AI40" s="87"/>
-      <c r="AJ40" s="89"/>
-      <c r="AK40" s="87"/>
-      <c r="AL40" s="88"/>
-      <c r="AM40" s="89"/>
+      <c r="AE40" s="87"/>
+      <c r="AF40" s="88"/>
+      <c r="AG40" s="89"/>
+      <c r="AH40" s="87"/>
+      <c r="AI40" s="89"/>
+      <c r="AJ40" s="87"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="89"/>
+      <c r="AM40" s="93"/>
       <c r="AN40" s="93"/>
       <c r="AO40" s="93"/>
       <c r="AP40" s="93"/>
@@ -5563,9 +5367,8 @@
       <c r="AR40" s="93"/>
       <c r="AS40" s="93"/>
       <c r="AT40" s="93"/>
-      <c r="AU40" s="93"/>
-    </row>
-    <row r="41" spans="1:47">
+    </row>
+    <row r="41" spans="1:46">
       <c r="A41" s="94"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
@@ -5596,15 +5399,15 @@
       <c r="AB41" s="96"/>
       <c r="AC41" s="96"/>
       <c r="AD41" s="96"/>
-      <c r="AE41" s="96"/>
-      <c r="AF41" s="87"/>
-      <c r="AG41" s="88"/>
-      <c r="AH41" s="89"/>
-      <c r="AI41" s="87"/>
-      <c r="AJ41" s="89"/>
-      <c r="AK41" s="87"/>
-      <c r="AL41" s="88"/>
-      <c r="AM41" s="89"/>
+      <c r="AE41" s="87"/>
+      <c r="AF41" s="88"/>
+      <c r="AG41" s="89"/>
+      <c r="AH41" s="87"/>
+      <c r="AI41" s="89"/>
+      <c r="AJ41" s="87"/>
+      <c r="AK41" s="88"/>
+      <c r="AL41" s="89"/>
+      <c r="AM41" s="93"/>
       <c r="AN41" s="93"/>
       <c r="AO41" s="93"/>
       <c r="AP41" s="93"/>
@@ -5612,9 +5415,8 @@
       <c r="AR41" s="93"/>
       <c r="AS41" s="93"/>
       <c r="AT41" s="93"/>
-      <c r="AU41" s="93"/>
-    </row>
-    <row r="42" spans="1:47">
+    </row>
+    <row r="42" spans="1:46">
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
       <c r="C42" s="104"/>
@@ -5645,15 +5447,15 @@
       <c r="AB42" s="105"/>
       <c r="AC42" s="105"/>
       <c r="AD42" s="105"/>
-      <c r="AE42" s="105"/>
-      <c r="AF42" s="113"/>
-      <c r="AG42" s="114"/>
-      <c r="AH42" s="115"/>
-      <c r="AI42" s="113"/>
-      <c r="AJ42" s="115"/>
-      <c r="AK42" s="113"/>
-      <c r="AL42" s="114"/>
-      <c r="AM42" s="115"/>
+      <c r="AE42" s="113"/>
+      <c r="AF42" s="114"/>
+      <c r="AG42" s="115"/>
+      <c r="AH42" s="113"/>
+      <c r="AI42" s="115"/>
+      <c r="AJ42" s="113"/>
+      <c r="AK42" s="114"/>
+      <c r="AL42" s="115"/>
+      <c r="AM42" s="144"/>
       <c r="AN42" s="144"/>
       <c r="AO42" s="144"/>
       <c r="AP42" s="144"/>
@@ -5661,9 +5463,8 @@
       <c r="AR42" s="144"/>
       <c r="AS42" s="144"/>
       <c r="AT42" s="144"/>
-      <c r="AU42" s="144"/>
-    </row>
-    <row r="43" spans="1:47">
+    </row>
+    <row r="43" spans="1:46">
       <c r="A43" s="94"/>
       <c r="B43" s="95"/>
       <c r="C43" s="95"/>
@@ -5694,15 +5495,15 @@
       <c r="AB43" s="96"/>
       <c r="AC43" s="96"/>
       <c r="AD43" s="96"/>
-      <c r="AE43" s="96"/>
-      <c r="AF43" s="87"/>
-      <c r="AG43" s="88"/>
-      <c r="AH43" s="89"/>
-      <c r="AI43" s="87"/>
-      <c r="AJ43" s="89"/>
-      <c r="AK43" s="87"/>
-      <c r="AL43" s="88"/>
-      <c r="AM43" s="89"/>
+      <c r="AE43" s="87"/>
+      <c r="AF43" s="88"/>
+      <c r="AG43" s="89"/>
+      <c r="AH43" s="87"/>
+      <c r="AI43" s="89"/>
+      <c r="AJ43" s="87"/>
+      <c r="AK43" s="88"/>
+      <c r="AL43" s="89"/>
+      <c r="AM43" s="93"/>
       <c r="AN43" s="93"/>
       <c r="AO43" s="93"/>
       <c r="AP43" s="93"/>
@@ -5710,9 +5511,8 @@
       <c r="AR43" s="93"/>
       <c r="AS43" s="93"/>
       <c r="AT43" s="93"/>
-      <c r="AU43" s="93"/>
-    </row>
-    <row r="44" spans="1:47">
+    </row>
+    <row r="44" spans="1:46">
       <c r="A44" s="94"/>
       <c r="B44" s="95"/>
       <c r="C44" s="95"/>
@@ -5743,15 +5543,15 @@
       <c r="AB44" s="96"/>
       <c r="AC44" s="96"/>
       <c r="AD44" s="96"/>
-      <c r="AE44" s="96"/>
-      <c r="AF44" s="87"/>
-      <c r="AG44" s="88"/>
-      <c r="AH44" s="89"/>
-      <c r="AI44" s="87"/>
-      <c r="AJ44" s="89"/>
-      <c r="AK44" s="87"/>
-      <c r="AL44" s="88"/>
-      <c r="AM44" s="89"/>
+      <c r="AE44" s="87"/>
+      <c r="AF44" s="88"/>
+      <c r="AG44" s="89"/>
+      <c r="AH44" s="87"/>
+      <c r="AI44" s="89"/>
+      <c r="AJ44" s="87"/>
+      <c r="AK44" s="88"/>
+      <c r="AL44" s="89"/>
+      <c r="AM44" s="93"/>
       <c r="AN44" s="93"/>
       <c r="AO44" s="93"/>
       <c r="AP44" s="93"/>
@@ -5759,9 +5559,8 @@
       <c r="AR44" s="93"/>
       <c r="AS44" s="93"/>
       <c r="AT44" s="93"/>
-      <c r="AU44" s="93"/>
-    </row>
-    <row r="45" spans="1:47">
+    </row>
+    <row r="45" spans="1:46">
       <c r="A45" s="94"/>
       <c r="B45" s="95"/>
       <c r="C45" s="95"/>
@@ -5792,15 +5591,15 @@
       <c r="AB45" s="96"/>
       <c r="AC45" s="96"/>
       <c r="AD45" s="96"/>
-      <c r="AE45" s="96"/>
-      <c r="AF45" s="87"/>
-      <c r="AG45" s="88"/>
-      <c r="AH45" s="89"/>
-      <c r="AI45" s="87"/>
-      <c r="AJ45" s="89"/>
-      <c r="AK45" s="87"/>
-      <c r="AL45" s="88"/>
-      <c r="AM45" s="89"/>
+      <c r="AE45" s="87"/>
+      <c r="AF45" s="88"/>
+      <c r="AG45" s="89"/>
+      <c r="AH45" s="87"/>
+      <c r="AI45" s="89"/>
+      <c r="AJ45" s="87"/>
+      <c r="AK45" s="88"/>
+      <c r="AL45" s="89"/>
+      <c r="AM45" s="93"/>
       <c r="AN45" s="93"/>
       <c r="AO45" s="93"/>
       <c r="AP45" s="93"/>
@@ -5808,9 +5607,8 @@
       <c r="AR45" s="93"/>
       <c r="AS45" s="93"/>
       <c r="AT45" s="93"/>
-      <c r="AU45" s="93"/>
-    </row>
-    <row r="46" spans="1:47">
+    </row>
+    <row r="46" spans="1:46">
       <c r="A46" s="94"/>
       <c r="B46" s="95"/>
       <c r="C46" s="95"/>
@@ -5841,15 +5639,15 @@
       <c r="AB46" s="96"/>
       <c r="AC46" s="96"/>
       <c r="AD46" s="96"/>
-      <c r="AE46" s="96"/>
-      <c r="AF46" s="87"/>
-      <c r="AG46" s="88"/>
-      <c r="AH46" s="89"/>
-      <c r="AI46" s="87"/>
-      <c r="AJ46" s="89"/>
-      <c r="AK46" s="87"/>
-      <c r="AL46" s="88"/>
-      <c r="AM46" s="89"/>
+      <c r="AE46" s="87"/>
+      <c r="AF46" s="88"/>
+      <c r="AG46" s="89"/>
+      <c r="AH46" s="87"/>
+      <c r="AI46" s="89"/>
+      <c r="AJ46" s="87"/>
+      <c r="AK46" s="88"/>
+      <c r="AL46" s="89"/>
+      <c r="AM46" s="93"/>
       <c r="AN46" s="93"/>
       <c r="AO46" s="93"/>
       <c r="AP46" s="93"/>
@@ -5857,9 +5655,8 @@
       <c r="AR46" s="93"/>
       <c r="AS46" s="93"/>
       <c r="AT46" s="93"/>
-      <c r="AU46" s="93"/>
-    </row>
-    <row r="47" spans="1:47">
+    </row>
+    <row r="47" spans="1:46">
       <c r="A47" s="94"/>
       <c r="B47" s="95"/>
       <c r="C47" s="95"/>
@@ -5890,15 +5687,15 @@
       <c r="AB47" s="96"/>
       <c r="AC47" s="96"/>
       <c r="AD47" s="96"/>
-      <c r="AE47" s="96"/>
-      <c r="AF47" s="87"/>
-      <c r="AG47" s="88"/>
-      <c r="AH47" s="89"/>
-      <c r="AI47" s="87"/>
-      <c r="AJ47" s="89"/>
-      <c r="AK47" s="87"/>
-      <c r="AL47" s="88"/>
-      <c r="AM47" s="89"/>
+      <c r="AE47" s="87"/>
+      <c r="AF47" s="88"/>
+      <c r="AG47" s="89"/>
+      <c r="AH47" s="87"/>
+      <c r="AI47" s="89"/>
+      <c r="AJ47" s="87"/>
+      <c r="AK47" s="88"/>
+      <c r="AL47" s="89"/>
+      <c r="AM47" s="93"/>
       <c r="AN47" s="93"/>
       <c r="AO47" s="93"/>
       <c r="AP47" s="93"/>
@@ -5906,9 +5703,8 @@
       <c r="AR47" s="93"/>
       <c r="AS47" s="93"/>
       <c r="AT47" s="93"/>
-      <c r="AU47" s="93"/>
-    </row>
-    <row r="48" spans="1:47">
+    </row>
+    <row r="48" spans="1:46">
       <c r="A48" s="94"/>
       <c r="B48" s="95"/>
       <c r="C48" s="95"/>
@@ -5939,15 +5735,15 @@
       <c r="AB48" s="96"/>
       <c r="AC48" s="96"/>
       <c r="AD48" s="96"/>
-      <c r="AE48" s="96"/>
-      <c r="AF48" s="87"/>
-      <c r="AG48" s="88"/>
-      <c r="AH48" s="89"/>
-      <c r="AI48" s="87"/>
-      <c r="AJ48" s="89"/>
-      <c r="AK48" s="87"/>
-      <c r="AL48" s="88"/>
-      <c r="AM48" s="89"/>
+      <c r="AE48" s="87"/>
+      <c r="AF48" s="88"/>
+      <c r="AG48" s="89"/>
+      <c r="AH48" s="87"/>
+      <c r="AI48" s="89"/>
+      <c r="AJ48" s="87"/>
+      <c r="AK48" s="88"/>
+      <c r="AL48" s="89"/>
+      <c r="AM48" s="93"/>
       <c r="AN48" s="93"/>
       <c r="AO48" s="93"/>
       <c r="AP48" s="93"/>
@@ -5955,9 +5751,8 @@
       <c r="AR48" s="93"/>
       <c r="AS48" s="93"/>
       <c r="AT48" s="93"/>
-      <c r="AU48" s="93"/>
-    </row>
-    <row r="49" spans="1:47">
+    </row>
+    <row r="49" spans="1:46">
       <c r="A49" s="94"/>
       <c r="B49" s="95"/>
       <c r="C49" s="95"/>
@@ -5988,15 +5783,15 @@
       <c r="AB49" s="96"/>
       <c r="AC49" s="96"/>
       <c r="AD49" s="96"/>
-      <c r="AE49" s="96"/>
-      <c r="AF49" s="87"/>
-      <c r="AG49" s="88"/>
-      <c r="AH49" s="89"/>
-      <c r="AI49" s="87"/>
-      <c r="AJ49" s="89"/>
-      <c r="AK49" s="87"/>
-      <c r="AL49" s="88"/>
-      <c r="AM49" s="89"/>
+      <c r="AE49" s="87"/>
+      <c r="AF49" s="88"/>
+      <c r="AG49" s="89"/>
+      <c r="AH49" s="87"/>
+      <c r="AI49" s="89"/>
+      <c r="AJ49" s="87"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="89"/>
+      <c r="AM49" s="93"/>
       <c r="AN49" s="93"/>
       <c r="AO49" s="93"/>
       <c r="AP49" s="93"/>
@@ -6004,9 +5799,8 @@
       <c r="AR49" s="93"/>
       <c r="AS49" s="93"/>
       <c r="AT49" s="93"/>
-      <c r="AU49" s="93"/>
-    </row>
-    <row r="50" spans="1:47">
+    </row>
+    <row r="50" spans="1:46">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
       <c r="C50" s="95"/>
@@ -6037,15 +5831,15 @@
       <c r="AB50" s="96"/>
       <c r="AC50" s="96"/>
       <c r="AD50" s="96"/>
-      <c r="AE50" s="96"/>
-      <c r="AF50" s="87"/>
-      <c r="AG50" s="88"/>
-      <c r="AH50" s="89"/>
-      <c r="AI50" s="87"/>
-      <c r="AJ50" s="89"/>
-      <c r="AK50" s="87"/>
-      <c r="AL50" s="88"/>
-      <c r="AM50" s="89"/>
+      <c r="AE50" s="87"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="89"/>
+      <c r="AH50" s="87"/>
+      <c r="AI50" s="89"/>
+      <c r="AJ50" s="87"/>
+      <c r="AK50" s="88"/>
+      <c r="AL50" s="89"/>
+      <c r="AM50" s="93"/>
       <c r="AN50" s="93"/>
       <c r="AO50" s="93"/>
       <c r="AP50" s="93"/>
@@ -6053,9 +5847,8 @@
       <c r="AR50" s="93"/>
       <c r="AS50" s="93"/>
       <c r="AT50" s="93"/>
-      <c r="AU50" s="93"/>
-    </row>
-    <row r="51" spans="1:47">
+    </row>
+    <row r="51" spans="1:46">
       <c r="A51" s="94"/>
       <c r="B51" s="95"/>
       <c r="C51" s="95"/>
@@ -6086,15 +5879,15 @@
       <c r="AB51" s="96"/>
       <c r="AC51" s="96"/>
       <c r="AD51" s="96"/>
-      <c r="AE51" s="96"/>
-      <c r="AF51" s="87"/>
-      <c r="AG51" s="88"/>
-      <c r="AH51" s="89"/>
-      <c r="AI51" s="87"/>
-      <c r="AJ51" s="89"/>
-      <c r="AK51" s="87"/>
-      <c r="AL51" s="88"/>
-      <c r="AM51" s="89"/>
+      <c r="AE51" s="87"/>
+      <c r="AF51" s="88"/>
+      <c r="AG51" s="89"/>
+      <c r="AH51" s="87"/>
+      <c r="AI51" s="89"/>
+      <c r="AJ51" s="87"/>
+      <c r="AK51" s="88"/>
+      <c r="AL51" s="89"/>
+      <c r="AM51" s="93"/>
       <c r="AN51" s="93"/>
       <c r="AO51" s="93"/>
       <c r="AP51" s="93"/>
@@ -6102,9 +5895,8 @@
       <c r="AR51" s="93"/>
       <c r="AS51" s="93"/>
       <c r="AT51" s="93"/>
-      <c r="AU51" s="93"/>
-    </row>
-    <row r="52" spans="1:47">
+    </row>
+    <row r="52" spans="1:46">
       <c r="A52" s="94"/>
       <c r="B52" s="95"/>
       <c r="C52" s="95"/>
@@ -6135,15 +5927,15 @@
       <c r="AB52" s="96"/>
       <c r="AC52" s="96"/>
       <c r="AD52" s="96"/>
-      <c r="AE52" s="96"/>
-      <c r="AF52" s="87"/>
-      <c r="AG52" s="88"/>
-      <c r="AH52" s="89"/>
-      <c r="AI52" s="87"/>
-      <c r="AJ52" s="89"/>
-      <c r="AK52" s="87"/>
-      <c r="AL52" s="88"/>
-      <c r="AM52" s="89"/>
+      <c r="AE52" s="87"/>
+      <c r="AF52" s="88"/>
+      <c r="AG52" s="89"/>
+      <c r="AH52" s="87"/>
+      <c r="AI52" s="89"/>
+      <c r="AJ52" s="87"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="89"/>
+      <c r="AM52" s="93"/>
       <c r="AN52" s="93"/>
       <c r="AO52" s="93"/>
       <c r="AP52" s="93"/>
@@ -6151,9 +5943,8 @@
       <c r="AR52" s="93"/>
       <c r="AS52" s="93"/>
       <c r="AT52" s="93"/>
-      <c r="AU52" s="93"/>
-    </row>
-    <row r="53" spans="1:47">
+    </row>
+    <row r="53" spans="1:46">
       <c r="A53" s="94"/>
       <c r="B53" s="95"/>
       <c r="C53" s="95"/>
@@ -6184,15 +5975,15 @@
       <c r="AB53" s="96"/>
       <c r="AC53" s="96"/>
       <c r="AD53" s="96"/>
-      <c r="AE53" s="96"/>
-      <c r="AF53" s="87"/>
-      <c r="AG53" s="88"/>
-      <c r="AH53" s="89"/>
-      <c r="AI53" s="87"/>
-      <c r="AJ53" s="89"/>
-      <c r="AK53" s="87"/>
-      <c r="AL53" s="88"/>
-      <c r="AM53" s="89"/>
+      <c r="AE53" s="87"/>
+      <c r="AF53" s="88"/>
+      <c r="AG53" s="89"/>
+      <c r="AH53" s="87"/>
+      <c r="AI53" s="89"/>
+      <c r="AJ53" s="87"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="89"/>
+      <c r="AM53" s="93"/>
       <c r="AN53" s="93"/>
       <c r="AO53" s="93"/>
       <c r="AP53" s="93"/>
@@ -6200,9 +5991,8 @@
       <c r="AR53" s="93"/>
       <c r="AS53" s="93"/>
       <c r="AT53" s="93"/>
-      <c r="AU53" s="93"/>
-    </row>
-    <row r="54" spans="1:47">
+    </row>
+    <row r="54" spans="1:46">
       <c r="A54" s="94"/>
       <c r="B54" s="95"/>
       <c r="C54" s="95"/>
@@ -6233,15 +6023,15 @@
       <c r="AB54" s="96"/>
       <c r="AC54" s="96"/>
       <c r="AD54" s="96"/>
-      <c r="AE54" s="96"/>
-      <c r="AF54" s="87"/>
-      <c r="AG54" s="88"/>
-      <c r="AH54" s="89"/>
-      <c r="AI54" s="87"/>
-      <c r="AJ54" s="89"/>
-      <c r="AK54" s="87"/>
-      <c r="AL54" s="88"/>
-      <c r="AM54" s="89"/>
+      <c r="AE54" s="87"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="89"/>
+      <c r="AH54" s="87"/>
+      <c r="AI54" s="89"/>
+      <c r="AJ54" s="87"/>
+      <c r="AK54" s="88"/>
+      <c r="AL54" s="89"/>
+      <c r="AM54" s="93"/>
       <c r="AN54" s="93"/>
       <c r="AO54" s="93"/>
       <c r="AP54" s="93"/>
@@ -6249,9 +6039,8 @@
       <c r="AR54" s="93"/>
       <c r="AS54" s="93"/>
       <c r="AT54" s="93"/>
-      <c r="AU54" s="93"/>
-    </row>
-    <row r="55" spans="1:47">
+    </row>
+    <row r="55" spans="1:46">
       <c r="A55" s="94"/>
       <c r="B55" s="95"/>
       <c r="C55" s="95"/>
@@ -6282,15 +6071,15 @@
       <c r="AB55" s="96"/>
       <c r="AC55" s="96"/>
       <c r="AD55" s="96"/>
-      <c r="AE55" s="96"/>
-      <c r="AF55" s="87"/>
-      <c r="AG55" s="88"/>
-      <c r="AH55" s="89"/>
-      <c r="AI55" s="87"/>
-      <c r="AJ55" s="89"/>
-      <c r="AK55" s="87"/>
-      <c r="AL55" s="88"/>
-      <c r="AM55" s="89"/>
+      <c r="AE55" s="87"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="89"/>
+      <c r="AH55" s="87"/>
+      <c r="AI55" s="89"/>
+      <c r="AJ55" s="87"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="89"/>
+      <c r="AM55" s="93"/>
       <c r="AN55" s="93"/>
       <c r="AO55" s="93"/>
       <c r="AP55" s="93"/>
@@ -6298,9 +6087,8 @@
       <c r="AR55" s="93"/>
       <c r="AS55" s="93"/>
       <c r="AT55" s="93"/>
-      <c r="AU55" s="93"/>
-    </row>
-    <row r="56" spans="1:47">
+    </row>
+    <row r="56" spans="1:46">
       <c r="A56" s="94"/>
       <c r="B56" s="95"/>
       <c r="C56" s="95"/>
@@ -6331,15 +6119,15 @@
       <c r="AB56" s="96"/>
       <c r="AC56" s="96"/>
       <c r="AD56" s="96"/>
-      <c r="AE56" s="96"/>
-      <c r="AF56" s="87"/>
-      <c r="AG56" s="88"/>
-      <c r="AH56" s="89"/>
-      <c r="AI56" s="87"/>
-      <c r="AJ56" s="89"/>
-      <c r="AK56" s="87"/>
-      <c r="AL56" s="88"/>
-      <c r="AM56" s="89"/>
+      <c r="AE56" s="87"/>
+      <c r="AF56" s="88"/>
+      <c r="AG56" s="89"/>
+      <c r="AH56" s="87"/>
+      <c r="AI56" s="89"/>
+      <c r="AJ56" s="87"/>
+      <c r="AK56" s="88"/>
+      <c r="AL56" s="89"/>
+      <c r="AM56" s="93"/>
       <c r="AN56" s="93"/>
       <c r="AO56" s="93"/>
       <c r="AP56" s="93"/>
@@ -6347,9 +6135,8 @@
       <c r="AR56" s="93"/>
       <c r="AS56" s="93"/>
       <c r="AT56" s="93"/>
-      <c r="AU56" s="93"/>
-    </row>
-    <row r="57" spans="1:47">
+    </row>
+    <row r="57" spans="1:46">
       <c r="A57" s="94"/>
       <c r="B57" s="95"/>
       <c r="C57" s="95"/>
@@ -6380,15 +6167,15 @@
       <c r="AB57" s="96"/>
       <c r="AC57" s="96"/>
       <c r="AD57" s="96"/>
-      <c r="AE57" s="96"/>
-      <c r="AF57" s="87"/>
-      <c r="AG57" s="88"/>
-      <c r="AH57" s="89"/>
-      <c r="AI57" s="87"/>
-      <c r="AJ57" s="89"/>
-      <c r="AK57" s="87"/>
-      <c r="AL57" s="88"/>
-      <c r="AM57" s="89"/>
+      <c r="AE57" s="87"/>
+      <c r="AF57" s="88"/>
+      <c r="AG57" s="89"/>
+      <c r="AH57" s="87"/>
+      <c r="AI57" s="89"/>
+      <c r="AJ57" s="87"/>
+      <c r="AK57" s="88"/>
+      <c r="AL57" s="89"/>
+      <c r="AM57" s="93"/>
       <c r="AN57" s="93"/>
       <c r="AO57" s="93"/>
       <c r="AP57" s="93"/>
@@ -6396,9 +6183,8 @@
       <c r="AR57" s="93"/>
       <c r="AS57" s="93"/>
       <c r="AT57" s="93"/>
-      <c r="AU57" s="93"/>
-    </row>
-    <row r="58" spans="1:47">
+    </row>
+    <row r="58" spans="1:46">
       <c r="A58" s="94"/>
       <c r="B58" s="95"/>
       <c r="C58" s="95"/>
@@ -6429,15 +6215,15 @@
       <c r="AB58" s="96"/>
       <c r="AC58" s="96"/>
       <c r="AD58" s="96"/>
-      <c r="AE58" s="96"/>
-      <c r="AF58" s="87"/>
-      <c r="AG58" s="88"/>
-      <c r="AH58" s="89"/>
-      <c r="AI58" s="87"/>
-      <c r="AJ58" s="89"/>
-      <c r="AK58" s="87"/>
-      <c r="AL58" s="88"/>
-      <c r="AM58" s="89"/>
+      <c r="AE58" s="87"/>
+      <c r="AF58" s="88"/>
+      <c r="AG58" s="89"/>
+      <c r="AH58" s="87"/>
+      <c r="AI58" s="89"/>
+      <c r="AJ58" s="87"/>
+      <c r="AK58" s="88"/>
+      <c r="AL58" s="89"/>
+      <c r="AM58" s="93"/>
       <c r="AN58" s="93"/>
       <c r="AO58" s="93"/>
       <c r="AP58" s="93"/>
@@ -6445,9 +6231,8 @@
       <c r="AR58" s="93"/>
       <c r="AS58" s="93"/>
       <c r="AT58" s="93"/>
-      <c r="AU58" s="93"/>
-    </row>
-    <row r="59" spans="1:47">
+    </row>
+    <row r="59" spans="1:46">
       <c r="A59" s="94"/>
       <c r="B59" s="95"/>
       <c r="C59" s="95"/>
@@ -6478,15 +6263,15 @@
       <c r="AB59" s="96"/>
       <c r="AC59" s="96"/>
       <c r="AD59" s="96"/>
-      <c r="AE59" s="96"/>
-      <c r="AF59" s="87"/>
-      <c r="AG59" s="88"/>
-      <c r="AH59" s="89"/>
-      <c r="AI59" s="87"/>
-      <c r="AJ59" s="89"/>
-      <c r="AK59" s="87"/>
-      <c r="AL59" s="88"/>
-      <c r="AM59" s="89"/>
+      <c r="AE59" s="87"/>
+      <c r="AF59" s="88"/>
+      <c r="AG59" s="89"/>
+      <c r="AH59" s="87"/>
+      <c r="AI59" s="89"/>
+      <c r="AJ59" s="87"/>
+      <c r="AK59" s="88"/>
+      <c r="AL59" s="89"/>
+      <c r="AM59" s="93"/>
       <c r="AN59" s="93"/>
       <c r="AO59" s="93"/>
       <c r="AP59" s="93"/>
@@ -6494,9 +6279,8 @@
       <c r="AR59" s="93"/>
       <c r="AS59" s="93"/>
       <c r="AT59" s="93"/>
-      <c r="AU59" s="93"/>
-    </row>
-    <row r="60" spans="1:47">
+    </row>
+    <row r="60" spans="1:46">
       <c r="A60" s="94"/>
       <c r="B60" s="95"/>
       <c r="C60" s="95"/>
@@ -6527,15 +6311,15 @@
       <c r="AB60" s="96"/>
       <c r="AC60" s="96"/>
       <c r="AD60" s="96"/>
-      <c r="AE60" s="96"/>
-      <c r="AF60" s="87"/>
-      <c r="AG60" s="88"/>
-      <c r="AH60" s="89"/>
-      <c r="AI60" s="87"/>
-      <c r="AJ60" s="89"/>
-      <c r="AK60" s="87"/>
-      <c r="AL60" s="88"/>
-      <c r="AM60" s="89"/>
+      <c r="AE60" s="87"/>
+      <c r="AF60" s="88"/>
+      <c r="AG60" s="89"/>
+      <c r="AH60" s="87"/>
+      <c r="AI60" s="89"/>
+      <c r="AJ60" s="87"/>
+      <c r="AK60" s="88"/>
+      <c r="AL60" s="89"/>
+      <c r="AM60" s="93"/>
       <c r="AN60" s="93"/>
       <c r="AO60" s="93"/>
       <c r="AP60" s="93"/>
@@ -6543,9 +6327,8 @@
       <c r="AR60" s="93"/>
       <c r="AS60" s="93"/>
       <c r="AT60" s="93"/>
-      <c r="AU60" s="93"/>
-    </row>
-    <row r="61" spans="1:47">
+    </row>
+    <row r="61" spans="1:46">
       <c r="A61" s="94"/>
       <c r="B61" s="95"/>
       <c r="C61" s="95"/>
@@ -6576,15 +6359,15 @@
       <c r="AB61" s="96"/>
       <c r="AC61" s="96"/>
       <c r="AD61" s="96"/>
-      <c r="AE61" s="96"/>
-      <c r="AF61" s="87"/>
-      <c r="AG61" s="88"/>
-      <c r="AH61" s="89"/>
-      <c r="AI61" s="87"/>
-      <c r="AJ61" s="89"/>
-      <c r="AK61" s="87"/>
-      <c r="AL61" s="88"/>
-      <c r="AM61" s="89"/>
+      <c r="AE61" s="87"/>
+      <c r="AF61" s="88"/>
+      <c r="AG61" s="89"/>
+      <c r="AH61" s="87"/>
+      <c r="AI61" s="89"/>
+      <c r="AJ61" s="87"/>
+      <c r="AK61" s="88"/>
+      <c r="AL61" s="89"/>
+      <c r="AM61" s="93"/>
       <c r="AN61" s="93"/>
       <c r="AO61" s="93"/>
       <c r="AP61" s="93"/>
@@ -6592,9 +6375,8 @@
       <c r="AR61" s="93"/>
       <c r="AS61" s="93"/>
       <c r="AT61" s="93"/>
-      <c r="AU61" s="93"/>
-    </row>
-    <row r="62" spans="1:47">
+    </row>
+    <row r="62" spans="1:46">
       <c r="A62" s="94"/>
       <c r="B62" s="95"/>
       <c r="C62" s="95"/>
@@ -6625,15 +6407,15 @@
       <c r="AB62" s="96"/>
       <c r="AC62" s="96"/>
       <c r="AD62" s="96"/>
-      <c r="AE62" s="96"/>
-      <c r="AF62" s="87"/>
-      <c r="AG62" s="88"/>
-      <c r="AH62" s="89"/>
-      <c r="AI62" s="87"/>
-      <c r="AJ62" s="89"/>
-      <c r="AK62" s="87"/>
-      <c r="AL62" s="88"/>
-      <c r="AM62" s="89"/>
+      <c r="AE62" s="87"/>
+      <c r="AF62" s="88"/>
+      <c r="AG62" s="89"/>
+      <c r="AH62" s="87"/>
+      <c r="AI62" s="89"/>
+      <c r="AJ62" s="87"/>
+      <c r="AK62" s="88"/>
+      <c r="AL62" s="89"/>
+      <c r="AM62" s="93"/>
       <c r="AN62" s="93"/>
       <c r="AO62" s="93"/>
       <c r="AP62" s="93"/>
@@ -6641,9 +6423,8 @@
       <c r="AR62" s="93"/>
       <c r="AS62" s="93"/>
       <c r="AT62" s="93"/>
-      <c r="AU62" s="93"/>
-    </row>
-    <row r="63" spans="1:47">
+    </row>
+    <row r="63" spans="1:46">
       <c r="A63" s="94"/>
       <c r="B63" s="95"/>
       <c r="C63" s="95"/>
@@ -6674,15 +6455,15 @@
       <c r="AB63" s="96"/>
       <c r="AC63" s="96"/>
       <c r="AD63" s="96"/>
-      <c r="AE63" s="96"/>
-      <c r="AF63" s="87"/>
-      <c r="AG63" s="88"/>
-      <c r="AH63" s="89"/>
-      <c r="AI63" s="87"/>
-      <c r="AJ63" s="89"/>
-      <c r="AK63" s="87"/>
-      <c r="AL63" s="88"/>
-      <c r="AM63" s="89"/>
+      <c r="AE63" s="87"/>
+      <c r="AF63" s="88"/>
+      <c r="AG63" s="89"/>
+      <c r="AH63" s="87"/>
+      <c r="AI63" s="89"/>
+      <c r="AJ63" s="87"/>
+      <c r="AK63" s="88"/>
+      <c r="AL63" s="89"/>
+      <c r="AM63" s="93"/>
       <c r="AN63" s="93"/>
       <c r="AO63" s="93"/>
       <c r="AP63" s="93"/>
@@ -6690,9 +6471,8 @@
       <c r="AR63" s="93"/>
       <c r="AS63" s="93"/>
       <c r="AT63" s="93"/>
-      <c r="AU63" s="93"/>
-    </row>
-    <row r="64" spans="1:47">
+    </row>
+    <row r="64" spans="1:46">
       <c r="A64" s="94"/>
       <c r="B64" s="95"/>
       <c r="C64" s="95"/>
@@ -6723,15 +6503,15 @@
       <c r="AB64" s="96"/>
       <c r="AC64" s="96"/>
       <c r="AD64" s="96"/>
-      <c r="AE64" s="96"/>
-      <c r="AF64" s="87"/>
-      <c r="AG64" s="88"/>
-      <c r="AH64" s="89"/>
-      <c r="AI64" s="87"/>
-      <c r="AJ64" s="89"/>
-      <c r="AK64" s="87"/>
-      <c r="AL64" s="88"/>
-      <c r="AM64" s="89"/>
+      <c r="AE64" s="87"/>
+      <c r="AF64" s="88"/>
+      <c r="AG64" s="89"/>
+      <c r="AH64" s="87"/>
+      <c r="AI64" s="89"/>
+      <c r="AJ64" s="87"/>
+      <c r="AK64" s="88"/>
+      <c r="AL64" s="89"/>
+      <c r="AM64" s="93"/>
       <c r="AN64" s="93"/>
       <c r="AO64" s="93"/>
       <c r="AP64" s="93"/>
@@ -6739,9 +6519,8 @@
       <c r="AR64" s="93"/>
       <c r="AS64" s="93"/>
       <c r="AT64" s="93"/>
-      <c r="AU64" s="93"/>
-    </row>
-    <row r="65" spans="1:47">
+    </row>
+    <row r="65" spans="1:46">
       <c r="A65" s="94"/>
       <c r="B65" s="95"/>
       <c r="C65" s="95"/>
@@ -6772,15 +6551,15 @@
       <c r="AB65" s="96"/>
       <c r="AC65" s="96"/>
       <c r="AD65" s="96"/>
-      <c r="AE65" s="96"/>
-      <c r="AF65" s="87"/>
-      <c r="AG65" s="88"/>
-      <c r="AH65" s="89"/>
-      <c r="AI65" s="87"/>
-      <c r="AJ65" s="89"/>
-      <c r="AK65" s="87"/>
-      <c r="AL65" s="88"/>
-      <c r="AM65" s="89"/>
+      <c r="AE65" s="87"/>
+      <c r="AF65" s="88"/>
+      <c r="AG65" s="89"/>
+      <c r="AH65" s="87"/>
+      <c r="AI65" s="89"/>
+      <c r="AJ65" s="87"/>
+      <c r="AK65" s="88"/>
+      <c r="AL65" s="89"/>
+      <c r="AM65" s="93"/>
       <c r="AN65" s="93"/>
       <c r="AO65" s="93"/>
       <c r="AP65" s="93"/>
@@ -6788,9 +6567,8 @@
       <c r="AR65" s="93"/>
       <c r="AS65" s="93"/>
       <c r="AT65" s="93"/>
-      <c r="AU65" s="93"/>
-    </row>
-    <row r="66" spans="1:47">
+    </row>
+    <row r="66" spans="1:46">
       <c r="A66" s="94"/>
       <c r="B66" s="95"/>
       <c r="C66" s="95"/>
@@ -6821,15 +6599,15 @@
       <c r="AB66" s="96"/>
       <c r="AC66" s="96"/>
       <c r="AD66" s="96"/>
-      <c r="AE66" s="96"/>
-      <c r="AF66" s="87"/>
-      <c r="AG66" s="88"/>
-      <c r="AH66" s="89"/>
-      <c r="AI66" s="87"/>
-      <c r="AJ66" s="89"/>
-      <c r="AK66" s="87"/>
-      <c r="AL66" s="88"/>
-      <c r="AM66" s="89"/>
+      <c r="AE66" s="87"/>
+      <c r="AF66" s="88"/>
+      <c r="AG66" s="89"/>
+      <c r="AH66" s="87"/>
+      <c r="AI66" s="89"/>
+      <c r="AJ66" s="87"/>
+      <c r="AK66" s="88"/>
+      <c r="AL66" s="89"/>
+      <c r="AM66" s="93"/>
       <c r="AN66" s="93"/>
       <c r="AO66" s="93"/>
       <c r="AP66" s="93"/>
@@ -6837,9 +6615,8 @@
       <c r="AR66" s="93"/>
       <c r="AS66" s="93"/>
       <c r="AT66" s="93"/>
-      <c r="AU66" s="93"/>
-    </row>
-    <row r="67" spans="1:47">
+    </row>
+    <row r="67" spans="1:46">
       <c r="A67" s="94"/>
       <c r="B67" s="95"/>
       <c r="C67" s="95"/>
@@ -6870,15 +6647,15 @@
       <c r="AB67" s="96"/>
       <c r="AC67" s="96"/>
       <c r="AD67" s="96"/>
-      <c r="AE67" s="96"/>
-      <c r="AF67" s="87"/>
-      <c r="AG67" s="88"/>
-      <c r="AH67" s="89"/>
-      <c r="AI67" s="87"/>
-      <c r="AJ67" s="89"/>
-      <c r="AK67" s="87"/>
-      <c r="AL67" s="88"/>
-      <c r="AM67" s="89"/>
+      <c r="AE67" s="87"/>
+      <c r="AF67" s="88"/>
+      <c r="AG67" s="89"/>
+      <c r="AH67" s="87"/>
+      <c r="AI67" s="89"/>
+      <c r="AJ67" s="87"/>
+      <c r="AK67" s="88"/>
+      <c r="AL67" s="89"/>
+      <c r="AM67" s="93"/>
       <c r="AN67" s="93"/>
       <c r="AO67" s="93"/>
       <c r="AP67" s="93"/>
@@ -6886,9 +6663,8 @@
       <c r="AR67" s="93"/>
       <c r="AS67" s="93"/>
       <c r="AT67" s="93"/>
-      <c r="AU67" s="93"/>
-    </row>
-    <row r="68" spans="1:47">
+    </row>
+    <row r="68" spans="1:46">
       <c r="A68" s="94"/>
       <c r="B68" s="95"/>
       <c r="C68" s="95"/>
@@ -6919,15 +6695,15 @@
       <c r="AB68" s="96"/>
       <c r="AC68" s="96"/>
       <c r="AD68" s="96"/>
-      <c r="AE68" s="96"/>
-      <c r="AF68" s="87"/>
-      <c r="AG68" s="88"/>
-      <c r="AH68" s="89"/>
-      <c r="AI68" s="87"/>
-      <c r="AJ68" s="89"/>
-      <c r="AK68" s="87"/>
-      <c r="AL68" s="88"/>
-      <c r="AM68" s="89"/>
+      <c r="AE68" s="87"/>
+      <c r="AF68" s="88"/>
+      <c r="AG68" s="89"/>
+      <c r="AH68" s="87"/>
+      <c r="AI68" s="89"/>
+      <c r="AJ68" s="87"/>
+      <c r="AK68" s="88"/>
+      <c r="AL68" s="89"/>
+      <c r="AM68" s="93"/>
       <c r="AN68" s="93"/>
       <c r="AO68" s="93"/>
       <c r="AP68" s="93"/>
@@ -6935,9 +6711,8 @@
       <c r="AR68" s="93"/>
       <c r="AS68" s="93"/>
       <c r="AT68" s="93"/>
-      <c r="AU68" s="93"/>
-    </row>
-    <row r="69" spans="1:47">
+    </row>
+    <row r="69" spans="1:46">
       <c r="A69" s="94"/>
       <c r="B69" s="95"/>
       <c r="C69" s="95"/>
@@ -6968,15 +6743,15 @@
       <c r="AB69" s="96"/>
       <c r="AC69" s="96"/>
       <c r="AD69" s="96"/>
-      <c r="AE69" s="96"/>
-      <c r="AF69" s="87"/>
-      <c r="AG69" s="88"/>
-      <c r="AH69" s="89"/>
-      <c r="AI69" s="87"/>
-      <c r="AJ69" s="89"/>
-      <c r="AK69" s="87"/>
-      <c r="AL69" s="88"/>
-      <c r="AM69" s="89"/>
+      <c r="AE69" s="87"/>
+      <c r="AF69" s="88"/>
+      <c r="AG69" s="89"/>
+      <c r="AH69" s="87"/>
+      <c r="AI69" s="89"/>
+      <c r="AJ69" s="87"/>
+      <c r="AK69" s="88"/>
+      <c r="AL69" s="89"/>
+      <c r="AM69" s="93"/>
       <c r="AN69" s="93"/>
       <c r="AO69" s="93"/>
       <c r="AP69" s="93"/>
@@ -6984,9 +6759,8 @@
       <c r="AR69" s="93"/>
       <c r="AS69" s="93"/>
       <c r="AT69" s="93"/>
-      <c r="AU69" s="93"/>
-    </row>
-    <row r="70" spans="1:47">
+    </row>
+    <row r="70" spans="1:46">
       <c r="A70" s="94"/>
       <c r="B70" s="95"/>
       <c r="C70" s="95"/>
@@ -7017,15 +6791,15 @@
       <c r="AB70" s="96"/>
       <c r="AC70" s="96"/>
       <c r="AD70" s="96"/>
-      <c r="AE70" s="96"/>
-      <c r="AF70" s="87"/>
-      <c r="AG70" s="88"/>
-      <c r="AH70" s="89"/>
-      <c r="AI70" s="87"/>
-      <c r="AJ70" s="89"/>
-      <c r="AK70" s="87"/>
-      <c r="AL70" s="88"/>
-      <c r="AM70" s="89"/>
+      <c r="AE70" s="87"/>
+      <c r="AF70" s="88"/>
+      <c r="AG70" s="89"/>
+      <c r="AH70" s="87"/>
+      <c r="AI70" s="89"/>
+      <c r="AJ70" s="87"/>
+      <c r="AK70" s="88"/>
+      <c r="AL70" s="89"/>
+      <c r="AM70" s="93"/>
       <c r="AN70" s="93"/>
       <c r="AO70" s="93"/>
       <c r="AP70" s="93"/>
@@ -7033,9 +6807,8 @@
       <c r="AR70" s="93"/>
       <c r="AS70" s="93"/>
       <c r="AT70" s="93"/>
-      <c r="AU70" s="93"/>
-    </row>
-    <row r="71" spans="1:47">
+    </row>
+    <row r="71" spans="1:46">
       <c r="A71" s="94"/>
       <c r="B71" s="95"/>
       <c r="C71" s="95"/>
@@ -7066,15 +6839,15 @@
       <c r="AB71" s="96"/>
       <c r="AC71" s="96"/>
       <c r="AD71" s="96"/>
-      <c r="AE71" s="96"/>
-      <c r="AF71" s="87"/>
-      <c r="AG71" s="88"/>
-      <c r="AH71" s="89"/>
-      <c r="AI71" s="87"/>
-      <c r="AJ71" s="89"/>
-      <c r="AK71" s="87"/>
-      <c r="AL71" s="88"/>
-      <c r="AM71" s="89"/>
+      <c r="AE71" s="87"/>
+      <c r="AF71" s="88"/>
+      <c r="AG71" s="89"/>
+      <c r="AH71" s="87"/>
+      <c r="AI71" s="89"/>
+      <c r="AJ71" s="87"/>
+      <c r="AK71" s="88"/>
+      <c r="AL71" s="89"/>
+      <c r="AM71" s="93"/>
       <c r="AN71" s="93"/>
       <c r="AO71" s="93"/>
       <c r="AP71" s="93"/>
@@ -7082,9 +6855,8 @@
       <c r="AR71" s="93"/>
       <c r="AS71" s="93"/>
       <c r="AT71" s="93"/>
-      <c r="AU71" s="93"/>
-    </row>
-    <row r="72" spans="1:47">
+    </row>
+    <row r="72" spans="1:46">
       <c r="A72" s="94"/>
       <c r="B72" s="95"/>
       <c r="C72" s="95"/>
@@ -7115,15 +6887,15 @@
       <c r="AB72" s="96"/>
       <c r="AC72" s="96"/>
       <c r="AD72" s="96"/>
-      <c r="AE72" s="96"/>
-      <c r="AF72" s="87"/>
-      <c r="AG72" s="88"/>
-      <c r="AH72" s="89"/>
-      <c r="AI72" s="87"/>
-      <c r="AJ72" s="89"/>
-      <c r="AK72" s="87"/>
-      <c r="AL72" s="88"/>
-      <c r="AM72" s="89"/>
+      <c r="AE72" s="87"/>
+      <c r="AF72" s="88"/>
+      <c r="AG72" s="89"/>
+      <c r="AH72" s="87"/>
+      <c r="AI72" s="89"/>
+      <c r="AJ72" s="87"/>
+      <c r="AK72" s="88"/>
+      <c r="AL72" s="89"/>
+      <c r="AM72" s="93"/>
       <c r="AN72" s="93"/>
       <c r="AO72" s="93"/>
       <c r="AP72" s="93"/>
@@ -7131,9 +6903,8 @@
       <c r="AR72" s="93"/>
       <c r="AS72" s="93"/>
       <c r="AT72" s="93"/>
-      <c r="AU72" s="93"/>
-    </row>
-    <row r="73" spans="1:47">
+    </row>
+    <row r="73" spans="1:46">
       <c r="A73" s="94"/>
       <c r="B73" s="95"/>
       <c r="C73" s="95"/>
@@ -7164,15 +6935,15 @@
       <c r="AB73" s="96"/>
       <c r="AC73" s="96"/>
       <c r="AD73" s="96"/>
-      <c r="AE73" s="96"/>
-      <c r="AF73" s="87"/>
-      <c r="AG73" s="88"/>
-      <c r="AH73" s="89"/>
-      <c r="AI73" s="87"/>
-      <c r="AJ73" s="89"/>
-      <c r="AK73" s="87"/>
-      <c r="AL73" s="88"/>
-      <c r="AM73" s="89"/>
+      <c r="AE73" s="87"/>
+      <c r="AF73" s="88"/>
+      <c r="AG73" s="89"/>
+      <c r="AH73" s="87"/>
+      <c r="AI73" s="89"/>
+      <c r="AJ73" s="87"/>
+      <c r="AK73" s="88"/>
+      <c r="AL73" s="89"/>
+      <c r="AM73" s="93"/>
       <c r="AN73" s="93"/>
       <c r="AO73" s="93"/>
       <c r="AP73" s="93"/>
@@ -7180,9 +6951,8 @@
       <c r="AR73" s="93"/>
       <c r="AS73" s="93"/>
       <c r="AT73" s="93"/>
-      <c r="AU73" s="93"/>
-    </row>
-    <row r="74" spans="1:47">
+    </row>
+    <row r="74" spans="1:46">
       <c r="A74" s="94"/>
       <c r="B74" s="95"/>
       <c r="C74" s="95"/>
@@ -7213,15 +6983,15 @@
       <c r="AB74" s="96"/>
       <c r="AC74" s="96"/>
       <c r="AD74" s="96"/>
-      <c r="AE74" s="96"/>
-      <c r="AF74" s="87"/>
-      <c r="AG74" s="88"/>
-      <c r="AH74" s="89"/>
-      <c r="AI74" s="87"/>
-      <c r="AJ74" s="89"/>
-      <c r="AK74" s="87"/>
-      <c r="AL74" s="88"/>
-      <c r="AM74" s="89"/>
+      <c r="AE74" s="87"/>
+      <c r="AF74" s="88"/>
+      <c r="AG74" s="89"/>
+      <c r="AH74" s="87"/>
+      <c r="AI74" s="89"/>
+      <c r="AJ74" s="87"/>
+      <c r="AK74" s="88"/>
+      <c r="AL74" s="89"/>
+      <c r="AM74" s="93"/>
       <c r="AN74" s="93"/>
       <c r="AO74" s="93"/>
       <c r="AP74" s="93"/>
@@ -7229,9 +6999,8 @@
       <c r="AR74" s="93"/>
       <c r="AS74" s="93"/>
       <c r="AT74" s="93"/>
-      <c r="AU74" s="93"/>
-    </row>
-    <row r="75" spans="1:47">
+    </row>
+    <row r="75" spans="1:46">
       <c r="A75" s="94"/>
       <c r="B75" s="95"/>
       <c r="C75" s="95"/>
@@ -7262,15 +7031,15 @@
       <c r="AB75" s="96"/>
       <c r="AC75" s="96"/>
       <c r="AD75" s="96"/>
-      <c r="AE75" s="96"/>
-      <c r="AF75" s="87"/>
-      <c r="AG75" s="88"/>
-      <c r="AH75" s="89"/>
-      <c r="AI75" s="87"/>
-      <c r="AJ75" s="89"/>
-      <c r="AK75" s="87"/>
-      <c r="AL75" s="88"/>
-      <c r="AM75" s="89"/>
+      <c r="AE75" s="87"/>
+      <c r="AF75" s="88"/>
+      <c r="AG75" s="89"/>
+      <c r="AH75" s="87"/>
+      <c r="AI75" s="89"/>
+      <c r="AJ75" s="87"/>
+      <c r="AK75" s="88"/>
+      <c r="AL75" s="89"/>
+      <c r="AM75" s="93"/>
       <c r="AN75" s="93"/>
       <c r="AO75" s="93"/>
       <c r="AP75" s="93"/>
@@ -7278,9 +7047,8 @@
       <c r="AR75" s="93"/>
       <c r="AS75" s="93"/>
       <c r="AT75" s="93"/>
-      <c r="AU75" s="93"/>
-    </row>
-    <row r="76" spans="1:47">
+    </row>
+    <row r="76" spans="1:46">
       <c r="A76" s="94"/>
       <c r="B76" s="95"/>
       <c r="C76" s="95"/>
@@ -7311,15 +7079,15 @@
       <c r="AB76" s="96"/>
       <c r="AC76" s="96"/>
       <c r="AD76" s="96"/>
-      <c r="AE76" s="96"/>
-      <c r="AF76" s="87"/>
-      <c r="AG76" s="88"/>
-      <c r="AH76" s="89"/>
-      <c r="AI76" s="87"/>
-      <c r="AJ76" s="89"/>
-      <c r="AK76" s="87"/>
-      <c r="AL76" s="88"/>
-      <c r="AM76" s="89"/>
+      <c r="AE76" s="87"/>
+      <c r="AF76" s="88"/>
+      <c r="AG76" s="89"/>
+      <c r="AH76" s="87"/>
+      <c r="AI76" s="89"/>
+      <c r="AJ76" s="87"/>
+      <c r="AK76" s="88"/>
+      <c r="AL76" s="89"/>
+      <c r="AM76" s="93"/>
       <c r="AN76" s="93"/>
       <c r="AO76" s="93"/>
       <c r="AP76" s="93"/>
@@ -7327,9 +7095,8 @@
       <c r="AR76" s="93"/>
       <c r="AS76" s="93"/>
       <c r="AT76" s="93"/>
-      <c r="AU76" s="93"/>
-    </row>
-    <row r="77" spans="1:47" ht="16" thickBot="1">
+    </row>
+    <row r="77" spans="1:46" ht="16" thickBot="1">
       <c r="A77" s="116"/>
       <c r="B77" s="117"/>
       <c r="C77" s="117"/>
@@ -7360,15 +7127,15 @@
       <c r="AB77" s="118"/>
       <c r="AC77" s="118"/>
       <c r="AD77" s="118"/>
-      <c r="AE77" s="118"/>
-      <c r="AF77" s="123"/>
-      <c r="AG77" s="124"/>
-      <c r="AH77" s="125"/>
-      <c r="AI77" s="123"/>
-      <c r="AJ77" s="125"/>
-      <c r="AK77" s="123"/>
-      <c r="AL77" s="124"/>
-      <c r="AM77" s="125"/>
+      <c r="AE77" s="123"/>
+      <c r="AF77" s="124"/>
+      <c r="AG77" s="125"/>
+      <c r="AH77" s="123"/>
+      <c r="AI77" s="125"/>
+      <c r="AJ77" s="123"/>
+      <c r="AK77" s="124"/>
+      <c r="AL77" s="125"/>
+      <c r="AM77" s="145"/>
       <c r="AN77" s="145"/>
       <c r="AO77" s="145"/>
       <c r="AP77" s="145"/>
@@ -7376,30 +7143,29 @@
       <c r="AR77" s="145"/>
       <c r="AS77" s="145"/>
       <c r="AT77" s="145"/>
-      <c r="AU77" s="145"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A12:AU12" xr:uid="{00000000-0009-0000-0000-000006000000}">
+  <autoFilter ref="A12:AT12" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="29" showButton="0"/>
   </autoFilter>
-  <mergeCells count="34">
-    <mergeCell ref="AK10:AM11"/>
-    <mergeCell ref="AN10:AU10"/>
+  <mergeCells count="33">
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="AJ10:AL11"/>
+    <mergeCell ref="AM10:AT10"/>
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="AD10:AE12"/>
-    <mergeCell ref="AF10:AH11"/>
-    <mergeCell ref="AI10:AJ11"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AE10:AG11"/>
+    <mergeCell ref="AH10:AI11"/>
     <mergeCell ref="AC10:AC12"/>
     <mergeCell ref="Z11:Z12"/>
     <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A4:AD4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="S10:S12"/>
     <mergeCell ref="T10:T12"/>
     <mergeCell ref="U10:W10"/>
@@ -7408,16 +7174,15 @@
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="W11:W12"/>
-    <mergeCell ref="A4:AE4"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7447,16 +7212,16 @@
   <sheetData>
     <row r="6" spans="2:10">
       <c r="C6" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="F6" s="60" t="s">
         <v>138</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>140</v>
       </c>
       <c r="G6" s="60">
         <v>0</v>
@@ -7465,12 +7230,12 @@
         <v>1</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="62">
         <v>13</v>
@@ -7491,12 +7256,12 @@
         <v>2</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="62">
         <v>14</v>
@@ -7517,12 +7282,12 @@
         <v>3</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="62">
         <v>15</v>
@@ -7543,12 +7308,12 @@
         <v>4</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="62">
         <v>16</v>
@@ -7569,7 +7334,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -7592,7 +7357,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -7600,7 +7365,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -7613,12 +7378,12 @@
         <v>8</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" s="62">
         <v>2</v>
@@ -7631,12 +7396,12 @@
         <v>9</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="62">
         <v>3</v>
@@ -7650,12 +7415,12 @@
         <v>10</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" s="62">
         <v>4</v>
@@ -7668,12 +7433,12 @@
         <v>11</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="62">
         <v>5</v>
@@ -7688,7 +7453,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -7707,7 +7472,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -7723,12 +7488,12 @@
         <v>14</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" s="62">
         <v>8</v>
@@ -7743,12 +7508,12 @@
         <v>15</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21" s="62">
         <v>7</v>
@@ -7763,12 +7528,12 @@
         <v>16</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" s="60">
         <v>6</v>
@@ -7781,7 +7546,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="60">
         <v>5</v>
@@ -7799,7 +7564,7 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C25" s="62">
         <v>3</v>
@@ -7815,7 +7580,7 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27" s="62">
         <v>1</v>
@@ -7835,38 +7600,38 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D32" s="66"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D33" s="66"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D34" s="66"/>
       <c r="G34" s="67"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D35" s="66"/>
       <c r="G35" s="68"/>
@@ -7971,7 +7736,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="E2" s="58" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -8121,17 +7886,17 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="J16" s="209" t="s">
+      <c r="J16" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
-      <c r="O16" s="210" t="s">
+      <c r="K16" s="206"/>
+      <c r="L16" s="206"/>
+      <c r="M16" s="206"/>
+      <c r="N16" s="206"/>
+      <c r="O16" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="210" t="s">
+      <c r="P16" s="207" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8172,8 +7937,8 @@
       <c r="N17" s="7">
         <v>5</v>
       </c>
-      <c r="O17" s="210"/>
-      <c r="P17" s="210"/>
+      <c r="O17" s="207"/>
+      <c r="P17" s="207"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="24" t="s">
@@ -8749,6 +8514,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dca7b0d4-e4b1-4c05-affe-89d22c055295">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="416ac7e9-f7ad-45a6-b75c-3a7d0b0271c6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CB83FD72A88CD49BF8A1AFB64ACFF57" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="91fdf7f69dd4288062a5cac7747ce293">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="416ac7e9-f7ad-45a6-b75c-3a7d0b0271c6" xmlns:ns3="dca7b0d4-e4b1-4c05-affe-89d22c055295" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d760217f629fc20119e799cbbc8c74d5" ns2:_="" ns3:_="">
     <xsd:import namespace="416ac7e9-f7ad-45a6-b75c-3a7d0b0271c6"/>
@@ -8983,27 +8768,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dca7b0d4-e4b1-4c05-affe-89d22c055295">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="416ac7e9-f7ad-45a6-b75c-3a7d0b0271c6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{DF9A0EB8-87CB-4F58-BC13-D1892C1D5598}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dca7b0d4-e4b1-4c05-affe-89d22c055295"/>
+    <ds:schemaRef ds:uri="416ac7e9-f7ad-45a6-b75c-3a7d0b0271c6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{C31FBEDF-DDF5-48BB-80BB-3495CA998F64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{D877D972-0CC0-4784-829D-9E632B8FEC52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9020,23 +8804,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{DF9A0EB8-87CB-4F58-BC13-D1892C1D5598}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dca7b0d4-e4b1-4c05-affe-89d22c055295"/>
-    <ds:schemaRef ds:uri="416ac7e9-f7ad-45a6-b75c-3a7d0b0271c6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{C31FBEDF-DDF5-48BB-80BB-3495CA998F64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>